--- a/workflow-pseudograph.xlsx
+++ b/workflow-pseudograph.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaneucl/tmp/myeloma-singlecell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A823413B-956B-5A43-9EE1-D645F89F32A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC18DB-5361-1C44-86EF-44EDE83EB750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36760" yWindow="1100" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="-36860" yWindow="1940" windowWidth="30100" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="graph-edges" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="177">
   <si>
     <t>from</t>
   </si>
@@ -552,11 +552,14 @@
   <si>
     <t>done</t>
   </si>
+  <si>
+    <t>tumour_modules_scr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1407,11 +1410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1692,7 +1695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -1726,12 +1729,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1743,24 +1746,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -1788,7 +1793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -1802,7 +1807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -1816,7 +1821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1830,7 +1835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
@@ -1870,7 +1875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1887,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>11</v>
       </c>

--- a/workflow-pseudograph.xlsx
+++ b/workflow-pseudograph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaneucl/tmp/myeloma-singlecell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC18DB-5361-1C44-86EF-44EDE83EB750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F69AF7-2F23-F543-B1BC-3B7EE3585C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36860" yWindow="1940" windowWidth="30100" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34120" yWindow="1800" windowWidth="30100" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="graph-edges" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="180">
   <si>
     <t>from</t>
   </si>
@@ -523,9 +523,6 @@
     <t>process</t>
   </si>
   <si>
-    <t>OMIT FOR NOW</t>
-  </si>
-  <si>
     <t>validation_exp</t>
   </si>
   <si>
@@ -554,6 +551,18 @@
   </si>
   <si>
     <t>tumour_modules_scr</t>
+  </si>
+  <si>
+    <t>clustering</t>
+  </si>
+  <si>
+    <t>quant pct clustered AND examples</t>
+  </si>
+  <si>
+    <t>clone_subset</t>
+  </si>
+  <si>
+    <t>have CD4/CD8 in Tcell_obs</t>
   </si>
 </sst>
 </file>
@@ -696,7 +705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,12 +887,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1049,13 +1052,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1411,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,7 +1427,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1447,8 +1449,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>175</v>
+      <c r="A2" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1467,8 +1469,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>175</v>
+      <c r="A3" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1479,8 +1481,8 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>175</v>
+      <c r="A4" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1491,8 +1493,8 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>175</v>
+      <c r="A5" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1508,8 +1510,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>175</v>
+      <c r="A6" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1525,8 +1527,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>175</v>
+      <c r="A7" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1545,8 +1547,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>175</v>
+      <c r="A8" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1562,8 +1564,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>175</v>
+      <c r="A9" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1582,48 +1584,48 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>175</v>
+      <c r="A10" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
         <v>171</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
         <v>169</v>
       </c>
-      <c r="E10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" t="s">
-        <v>170</v>
-      </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>175</v>
+      <c r="A12" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1632,18 +1634,18 @@
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>175</v>
+      <c r="A13" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1652,18 +1654,18 @@
         <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>175</v>
+      <c r="A14" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1676,14 +1678,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>175</v>
+      <c r="A15" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1695,12 +1697,35 @@
         <v>32</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1709,15 +1734,18 @@
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1726,48 +1754,49 @@
         <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="A20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>166</v>
+      <c r="E20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -1776,34 +1805,6 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1812,13 +1813,16 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1826,33 +1830,47 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>42</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1860,7 +1878,7 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
@@ -1877,10 +1895,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
@@ -1890,6 +1908,9 @@
       </c>
       <c r="F31">
         <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1897,7 +1918,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
@@ -1914,7 +1935,7 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
@@ -1925,16 +1946,13 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
@@ -1945,13 +1963,16 @@
       <c r="F34">
         <v>1</v>
       </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
@@ -1965,10 +1986,10 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
@@ -1982,24 +2003,24 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
@@ -2016,10 +2037,10 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
@@ -2033,10 +2054,10 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
         <v>40</v>
@@ -2050,10 +2071,10 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
         <v>40</v>
@@ -2067,19 +2088,19 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
@@ -2087,7 +2108,7 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
         <v>40</v>
@@ -2101,10 +2122,10 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
@@ -2121,7 +2142,7 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
         <v>40</v>
@@ -2135,10 +2156,10 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
@@ -2152,36 +2173,36 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -2189,7 +2210,7 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -2203,10 +2224,10 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
@@ -2220,10 +2241,10 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
@@ -2237,10 +2258,10 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -2257,7 +2278,7 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -2271,10 +2292,10 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
         <v>40</v>
@@ -2288,27 +2309,27 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
         <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
         <v>40</v>
@@ -2322,10 +2343,10 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
         <v>40</v>
@@ -2339,10 +2360,10 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
         <v>40</v>
@@ -2359,7 +2380,7 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
         <v>40</v>
@@ -2373,10 +2394,10 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
         <v>40</v>
@@ -2390,10 +2411,10 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
         <v>40</v>
@@ -2407,10 +2428,10 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
         <v>40</v>
@@ -2424,27 +2445,27 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
         <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="F63" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
         <v>40</v>
@@ -2458,10 +2479,10 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
         <v>40</v>
@@ -2475,10 +2496,10 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D66" t="s">
         <v>40</v>
@@ -2492,10 +2513,10 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
         <v>40</v>
@@ -2509,10 +2530,10 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
         <v>40</v>
@@ -2526,10 +2547,10 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
         <v>40</v>
@@ -2543,10 +2564,10 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
         <v>40</v>
@@ -2560,27 +2581,27 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
         <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
         <v>40</v>
@@ -2597,7 +2618,7 @@
         <v>29</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D73" t="s">
         <v>40</v>
@@ -2631,7 +2652,7 @@
         <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
         <v>40</v>
@@ -2648,7 +2669,7 @@
         <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D76" t="s">
         <v>40</v>
@@ -2662,10 +2683,10 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D77" t="s">
         <v>40</v>
@@ -2679,10 +2700,10 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
         <v>40</v>
@@ -2696,10 +2717,10 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D79" t="s">
         <v>40</v>
@@ -2713,27 +2734,27 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D80" t="s">
         <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F80" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
@@ -2747,10 +2768,10 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
         <v>40</v>
@@ -2764,10 +2785,10 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D83" t="s">
         <v>40</v>
@@ -2781,10 +2802,10 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
         <v>40</v>
@@ -2798,19 +2819,19 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D85" t="s">
         <v>40</v>
       </c>
       <c r="E85" t="s">
-        <v>114</v>
-      </c>
-      <c r="F85">
-        <v>4</v>
+        <v>107</v>
+      </c>
+      <c r="F85" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
@@ -2818,7 +2839,7 @@
         <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
         <v>40</v>
@@ -2835,7 +2856,7 @@
         <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D87" t="s">
         <v>40</v>
@@ -2852,7 +2873,7 @@
         <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D88" t="s">
         <v>40</v>
@@ -2869,7 +2890,7 @@
         <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D89" t="s">
         <v>40</v>
@@ -2883,22 +2904,19 @@
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D90" t="s">
         <v>40</v>
       </c>
       <c r="E90" t="s">
-        <v>119</v>
-      </c>
-      <c r="G90" t="s">
-        <v>120</v>
-      </c>
-      <c r="H90" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
@@ -2906,16 +2924,16 @@
         <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s">
         <v>40</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
-      </c>
-      <c r="F91">
-        <v>4</v>
+        <v>119</v>
+      </c>
+      <c r="G91" t="s">
+        <v>120</v>
       </c>
       <c r="H91" t="s">
         <v>121</v>
@@ -2926,7 +2944,7 @@
         <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
         <v>40</v>
@@ -2936,6 +2954,9 @@
       </c>
       <c r="F92">
         <v>4</v>
+      </c>
+      <c r="H92" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
@@ -2943,7 +2964,7 @@
         <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
         <v>40</v>
@@ -2960,7 +2981,7 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D94" t="s">
         <v>40</v>
@@ -2974,19 +2995,19 @@
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D95" t="s">
         <v>40</v>
       </c>
       <c r="E95" t="s">
-        <v>127</v>
-      </c>
-      <c r="F95" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
@@ -2994,7 +3015,7 @@
         <v>34</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D96" t="s">
         <v>40</v>
@@ -3011,7 +3032,7 @@
         <v>34</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D97" t="s">
         <v>40</v>
@@ -3028,7 +3049,7 @@
         <v>34</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D98" t="s">
         <v>40</v>
@@ -3042,10 +3063,10 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D99" t="s">
         <v>40</v>
@@ -3062,7 +3083,7 @@
         <v>36</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D100" t="s">
         <v>40</v>
@@ -3079,7 +3100,7 @@
         <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D101" t="s">
         <v>40</v>
@@ -3093,27 +3114,27 @@
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D102" t="s">
         <v>40</v>
       </c>
       <c r="E102" t="s">
-        <v>136</v>
-      </c>
-      <c r="F102">
-        <v>5</v>
+        <v>127</v>
+      </c>
+      <c r="F102" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D103" t="s">
         <v>40</v>
@@ -3127,10 +3148,10 @@
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D104" t="s">
         <v>40</v>
@@ -3144,7 +3165,7 @@
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
         <v>138</v>
@@ -3164,7 +3185,7 @@
         <v>139</v>
       </c>
       <c r="C106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D106" t="s">
         <v>40</v>
@@ -3178,10 +3199,10 @@
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D107" t="s">
         <v>40</v>
@@ -3195,10 +3216,10 @@
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D108" t="s">
         <v>40</v>
@@ -3212,10 +3233,10 @@
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D109" t="s">
         <v>40</v>
@@ -3226,16 +3247,13 @@
       <c r="F109">
         <v>5</v>
       </c>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D110" t="s">
         <v>40</v>
@@ -3246,30 +3264,33 @@
       <c r="F110">
         <v>5</v>
       </c>
+      <c r="H110" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D111" t="s">
         <v>40</v>
       </c>
       <c r="E111" t="s">
-        <v>147</v>
-      </c>
-      <c r="F111" t="s">
-        <v>148</v>
+        <v>136</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D112" t="s">
         <v>40</v>
@@ -3283,10 +3304,10 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="C113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D113" t="s">
         <v>40</v>
@@ -3300,10 +3321,10 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="C114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D114" t="s">
         <v>40</v>
@@ -3317,10 +3338,10 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D115" t="s">
         <v>40</v>
@@ -3334,10 +3355,10 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="C116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D116" t="s">
         <v>40</v>
@@ -3351,10 +3372,10 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="C117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D117" t="s">
         <v>40</v>
@@ -3371,7 +3392,7 @@
         <v>29</v>
       </c>
       <c r="C118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D118" t="s">
         <v>40</v>
@@ -3385,10 +3406,10 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D119" t="s">
         <v>40</v>
@@ -3405,7 +3426,7 @@
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D120" t="s">
         <v>40</v>
@@ -3419,27 +3440,27 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D121" t="s">
         <v>40</v>
       </c>
       <c r="E121" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F121" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="C122" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D122" t="s">
         <v>40</v>
@@ -3456,7 +3477,7 @@
         <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D123" t="s">
         <v>40</v>
@@ -3465,6 +3486,23 @@
         <v>159</v>
       </c>
       <c r="F123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
+        <v>162</v>
+      </c>
+      <c r="D124" t="s">
+        <v>40</v>
+      </c>
+      <c r="E124" t="s">
+        <v>159</v>
+      </c>
+      <c r="F124" t="s">
         <v>160</v>
       </c>
     </row>
